--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2F647B99-59CA-4ECF-A696-C7B4F0B63AEC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
+    <workbookView minimized="1" xWindow="684" yWindow="684" windowWidth="12288" windowHeight="7812" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Command</t>
   </si>
@@ -141,6 +141,156 @@
   </si>
   <si>
     <t>Client-Server Architecture - Client is the client while Daemon does heavy lifting</t>
+  </si>
+  <si>
+    <t>docker run &lt;image name&gt;</t>
+  </si>
+  <si>
+    <t>Run container coming from image, &lt;image name&gt;</t>
+  </si>
+  <si>
+    <t>docker &lt;object-type&gt; &lt;command&gt; &lt;options&gt;</t>
+  </si>
+  <si>
+    <t>New syntax for commands</t>
+  </si>
+  <si>
+    <t>docker container run &lt;image name&gt;</t>
+  </si>
+  <si>
+    <t>Example of the new syntax</t>
+  </si>
+  <si>
+    <t>docker container run --publish 8080:80 fhsinchy/hello-dock</t>
+  </si>
+  <si>
+    <t>Example using a specific image from Docker Hub</t>
+  </si>
+  <si>
+    <t>--publish &lt;host port&gt;:&lt;container port&gt;</t>
+  </si>
+  <si>
+    <t>Publishing ports - request on the host port will be forwarded to the container port</t>
+  </si>
+  <si>
+    <t>docker container run --detach --publish 8080:80 fhsinchy/hello-dock</t>
+  </si>
+  <si>
+    <t>Detach Option: runs the container in background - can close terminal without shutting down container</t>
+  </si>
+  <si>
+    <t>docker container ls</t>
+  </si>
+  <si>
+    <t>List running containers (similar to docker ps)</t>
+  </si>
+  <si>
+    <t>docker container run --detach --publish 8888:80 --name hello-dock-container fhsinchy/hello-dock</t>
+  </si>
+  <si>
+    <t>Use "name" option to give a customer container name</t>
+  </si>
+  <si>
+    <t>docker container rename &lt;container identifier&gt; &lt;new name&gt;</t>
+  </si>
+  <si>
+    <t>Rename container</t>
+  </si>
+  <si>
+    <t>docker container stop &lt;container identifier&gt;</t>
+  </si>
+  <si>
+    <t>docker container kill hello-dock-container-2</t>
+  </si>
+  <si>
+    <t>Shuts down the container using SIGKILL signal rather than SIGTERM</t>
+  </si>
+  <si>
+    <t>Stop a running container (using SIGTERM signal)</t>
+  </si>
+  <si>
+    <t>docker container start &lt;container identifier&gt;</t>
+  </si>
+  <si>
+    <t>Restart a container (where it has been previously terminated)</t>
+  </si>
+  <si>
+    <t>docker container restart hello-dock-container-2</t>
+  </si>
+  <si>
+    <t>Restart a currently running container</t>
+  </si>
+  <si>
+    <t>container run</t>
+  </si>
+  <si>
+    <t>Composed of "container create" &amp; "container start"</t>
+  </si>
+  <si>
+    <t>docker container create --publish 8080:80 fhsinchy/hello-dock</t>
+  </si>
+  <si>
+    <t>Creates container without running it</t>
+  </si>
+  <si>
+    <t>Starts the created container</t>
+  </si>
+  <si>
+    <t>docker container start focused_euler</t>
+  </si>
+  <si>
+    <t>docker container rm &lt;container identifier&gt;</t>
+  </si>
+  <si>
+    <t>Remove a "dangling" container (use space delimited list to remove multiple)</t>
+  </si>
+  <si>
+    <t>docker container prune</t>
+  </si>
+  <si>
+    <t>Remove all dangling containers (use --force to do so without confirmation message)</t>
+  </si>
+  <si>
+    <t>docker container run --rm</t>
+  </si>
+  <si>
+    <t>Remove container once stopped (can be used with "start" too)</t>
+  </si>
+  <si>
+    <t>docker container run --rm -it ubuntu</t>
+  </si>
+  <si>
+    <t>"-it" option allows you to run container interactively - you land right at the command line inside container</t>
+  </si>
+  <si>
+    <t>docker container run -it node</t>
+  </si>
+  <si>
+    <t>Run node image interactively</t>
+  </si>
+  <si>
+    <t>--interactive --tty</t>
+  </si>
+  <si>
+    <t>Alternative way of writing "-it"</t>
+  </si>
+  <si>
+    <t>echo -n my-secret | base64</t>
+  </si>
+  <si>
+    <t>Encode text using base64 - this is not actually docker</t>
+  </si>
+  <si>
+    <t>docker container run &lt;image name&gt; &lt;command&gt;</t>
+  </si>
+  <si>
+    <t>Pass a specific command to a container</t>
+  </si>
+  <si>
+    <t>docker container run --rm busybox echo -n my-secret | base64</t>
+  </si>
+  <si>
+    <t>Example of passing a command to a container</t>
   </si>
 </sst>
 </file>
@@ -517,22 +667,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="3" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -546,7 +696,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -560,7 +710,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -574,7 +724,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -588,17 +738,29 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
@@ -607,6 +769,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
@@ -614,7 +782,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
@@ -622,9 +796,175 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -637,6 +977,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9575841598740409B09223EF24CED85" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbe97c5ab245263ab655c5fd4ab1deaf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b0722e88-cd84-4871-92af-2e456a821a27" xmlns:ns4="44926ea0-499d-455d-a6f7-8910f7c58488" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e0264b979939903ce70a1471b72ed59" ns3:_="" ns4:_="">
     <xsd:import namespace="b0722e88-cd84-4871-92af-2e456a821a27"/>
@@ -859,15 +1208,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -875,6 +1215,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D071480C-184B-4530-8225-B30D9A6BAED7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -893,27 +1241,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2F647B99-59CA-4ECF-A696-C7B4F0B63AEC}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{31F5D051-DCB2-455D-80B0-43E108A2DB90}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="684" yWindow="684" windowWidth="12288" windowHeight="7812" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Command</t>
   </si>
@@ -291,6 +291,104 @@
   </si>
   <si>
     <t>Example of passing a command to a container</t>
+  </si>
+  <si>
+    <t>bind mount</t>
+  </si>
+  <si>
+    <t>Gives container direct access to local file system and vice versa</t>
+  </si>
+  <si>
+    <t>docker container run --rm -v $(pwd):/zone fhsinchy/rmbyext pdf</t>
+  </si>
+  <si>
+    <t>Executable Image (rmbyext image), using a Bind Mount to delete files in local file system</t>
+  </si>
+  <si>
+    <t>--volume &lt;local file system directory absolute path&gt;:&lt;container file system directory absolute path&gt;:&lt;read write access&gt;</t>
+  </si>
+  <si>
+    <t>Generic syntax for the volume option</t>
+  </si>
+  <si>
+    <t>docker container run --rm --detach --name default-nginx --publish 8080:80 nginx</t>
+  </si>
+  <si>
+    <t>Start nginx container (starts a nginx server on localhost)</t>
+  </si>
+  <si>
+    <t>FROM ubuntu:latest
+EXPOSE 80
+RUN apt-get update &amp;&amp; \
+    apt-get install nginx -y &amp;&amp; \
+    apt-get clean &amp;&amp; rm -rf /var/lib/apt/lists/*
+CMD ["nginx", "-g", "daemon off;"]</t>
+  </si>
+  <si>
+    <t>Dockerfile for creating a custom Nginx image</t>
+  </si>
+  <si>
+    <t>docker image build .</t>
+  </si>
+  <si>
+    <t>Build image from Dockerfile in current working directory</t>
+  </si>
+  <si>
+    <t>docker image &lt;command&gt; &lt;options&gt;</t>
+  </si>
+  <si>
+    <t>Genric syntax for image commands</t>
+  </si>
+  <si>
+    <t>docker container run --rm --detach --name custom-nginx-packaged --publish 8080:80 &lt;image ID&gt;</t>
+  </si>
+  <si>
+    <t>Start a container using your custom built image</t>
+  </si>
+  <si>
+    <t>--tag &lt;image repository&gt;:&lt;image tag&gt;</t>
+  </si>
+  <si>
+    <t>Tagging an image (giving it a name)</t>
+  </si>
+  <si>
+    <t>docker container run mysql:5.7</t>
+  </si>
+  <si>
+    <t>Run MySQL container with version 5.7 (5.7 is the tag)</t>
+  </si>
+  <si>
+    <t>docker image build --tag custom-nginx:packaged .</t>
+  </si>
+  <si>
+    <t>Tag the custom Nginx image</t>
+  </si>
+  <si>
+    <t>docker image tag &lt;image id&gt; &lt;image repository&gt;:&lt;image tag&gt;</t>
+  </si>
+  <si>
+    <t>Tag Image after already created (or change the tag)</t>
+  </si>
+  <si>
+    <t>docker image tag &lt;image repository&gt;:&lt;image tag&gt; &lt;new image repository&gt;:&lt;new image tag&gt;</t>
+  </si>
+  <si>
+    <t>docker image ls</t>
+  </si>
+  <si>
+    <t>List images</t>
+  </si>
+  <si>
+    <t>docker image rm &lt;image identifier&gt;</t>
+  </si>
+  <si>
+    <t>Remove an image</t>
+  </si>
+  <si>
+    <t>docker image prune --force</t>
+  </si>
+  <si>
+    <t>Clean up dangling images</t>
   </si>
 </sst>
 </file>
@@ -667,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,6 +920,12 @@
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -967,9 +1071,146 @@
         <v>73</v>
       </c>
     </row>
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -977,12 +1218,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1209,15 +1447,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1242,18 +1492,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{31F5D051-DCB2-455D-80B0-43E108A2DB90}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{68EBCCCA-439C-44A5-B768-C87A7ECDE017}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>Command</t>
   </si>
@@ -389,6 +389,54 @@
   </si>
   <si>
     <t>Clean up dangling images</t>
+  </si>
+  <si>
+    <t>docker image history custom-nginx:packaged</t>
+  </si>
+  <si>
+    <t>Visualize the different layers of an image</t>
+  </si>
+  <si>
+    <t>union file system</t>
+  </si>
+  <si>
+    <t>Makes the "layering" in Docker possible</t>
+  </si>
+  <si>
+    <t>https://github.com/fhsinchy/docker-handbook-projects</t>
+  </si>
+  <si>
+    <t>Docker Handbook projects code</t>
+  </si>
+  <si>
+    <t>Dockerfile for creating a custom Nginx image from Source</t>
+  </si>
+  <si>
+    <t>FROM ubuntu:latest
+RUN apt-get update &amp;&amp; \
+    apt-get install build-essential\ 
+                    libpcre3 \
+                    libpcre3-dev \
+                    zlib1g \
+                    zlib1g-dev \
+                    libssl1.1 \
+                    libssl-dev \
+                    -y &amp;&amp; \
+    apt-get clean &amp;&amp; rm -rf /var/lib/apt/lists/*
+COPY nginx-1.21.1.tar.gz .
+RUN tar -xvf nginx-1.21.1.tar.gz &amp;&amp; rm nginx-1.21.1.tar.gz
+RUN cd nginx-1.21.1 &amp;&amp; \
+    ./configure \
+        --sbin-path=/usr/bin/nginx \
+        --conf-path=/etc/nginx/nginx.conf \
+        --error-log-path=/var/log/nginx/error.log \
+        --http-log-path=/var/log/nginx/access.log \
+        --with-pcre \
+        --pid-path=/var/run/nginx.pid \
+        --with-http_ssl_module &amp;&amp; \
+    make &amp;&amp; make install
+RUN rm -rf /nginx-1.21.1
+CMD ["nginx", "-g", "daemon off;"]</t>
   </si>
 </sst>
 </file>
@@ -439,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,6 +498,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,17 +816,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" style="3" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -934,6 +985,12 @@
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -943,12 +1000,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1205,12 +1268,129 @@
         <v>104</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A53:A77"/>
+    <mergeCell ref="B53:B77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1218,9 +1398,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,27 +1630,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1492,9 +1663,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{68EBCCCA-439C-44A5-B768-C87A7ECDE017}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D9987B20-7C05-4BA5-8018-89DB3DB38232}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t>Command</t>
   </si>
@@ -437,6 +437,67 @@
     make &amp;&amp; make install
 RUN rm -rf /nginx-1.21.1
 CMD ["nginx", "-g", "daemon off;"]</t>
+  </si>
+  <si>
+    <t>docker image build --tag custom-nginx:built .</t>
+  </si>
+  <si>
+    <t>Build the above Nginx image</t>
+  </si>
+  <si>
+    <t>ARG FILENAME="nginx-1.19.2"
+ARG EXTENSION="tar.gz"
+ADD https://nginx.org/download/${FILENAME}.${EXTENSION} .</t>
+  </si>
+  <si>
+    <t>Add these lines to the above Dockerfile</t>
+  </si>
+  <si>
+    <t>Optimizing Images</t>
+  </si>
+  <si>
+    <t>Uninstall unnecessary packages when their use is complete - make sure to have one RUN command so they don't appear in different layers</t>
+  </si>
+  <si>
+    <t>FROM alpine:latest</t>
+  </si>
+  <si>
+    <t>Change "ubuntu" to "alpine": Alpine is a more lightweight and more secure distribution of Linux. There are other differences in the Dockerfile</t>
+  </si>
+  <si>
+    <t>FROM python:3-alpine
+WORKDIR /zone
+RUN apk add --no-cache git &amp;&amp; \
+    pip install git+https://github.com/fhsinchy/rmbyext.git#egg=rmbyext &amp;&amp; \
+    apk del git
+ENTRYPOINT [ "rmbyext" ]</t>
+  </si>
+  <si>
+    <t>Creating an executable image that will run the rmbyext python script</t>
+  </si>
+  <si>
+    <t>docker image build --tag rmbyext .</t>
+  </si>
+  <si>
+    <t>Build the above rmbytxt image</t>
+  </si>
+  <si>
+    <t>docker login</t>
+  </si>
+  <si>
+    <t>Log in to the Docker Hub [image must be tagged to add]</t>
+  </si>
+  <si>
+    <t>docker image build --tag bennis89/custom-nginx:latest --file Dockerfile.built .</t>
+  </si>
+  <si>
+    <t>Build image so that it can be uploaded to Docker Hub</t>
+  </si>
+  <si>
+    <t>docker image push &lt;image repository&gt;:&lt;image tag&gt;</t>
+  </si>
+  <si>
+    <t>Upload the image</t>
   </si>
 </sst>
 </file>
@@ -816,15 +877,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" style="3" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72.44140625" customWidth="1"/>
@@ -1021,6 +1082,12 @@
       <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -1383,8 +1450,104 @@
       <c r="A77" s="5"/>
       <c r="B77" s="4"/>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="B83:B88"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B35:B39"/>
@@ -1398,15 +1561,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9575841598740409B09223EF24CED85" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbe97c5ab245263ab655c5fd4ab1deaf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b0722e88-cd84-4871-92af-2e456a821a27" xmlns:ns4="44926ea0-499d-455d-a6f7-8910f7c58488" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e0264b979939903ce70a1471b72ed59" ns3:_="" ns4:_="">
     <xsd:import namespace="b0722e88-cd84-4871-92af-2e456a821a27"/>
@@ -1629,6 +1783,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1636,14 +1799,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D071480C-184B-4530-8225-B30D9A6BAED7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1662,19 +1817,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
     <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D9987B20-7C05-4BA5-8018-89DB3DB38232}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C1C832AA-FC0C-431B-B27B-F61AB37A76F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
   <si>
     <t>Command</t>
   </si>
@@ -498,6 +498,69 @@
   </si>
   <si>
     <t>Upload the image</t>
+  </si>
+  <si>
+    <t>FROM node:lts-alpine
+EXPOSE 3000
+USER node
+RUN mkdir -p /home/node/app
+WORKDIR /home/node/app
+COPY ./package.json .
+RUN npm install
+COPY . .
+CMD [ "npm", "run", "dev" ]</t>
+  </si>
+  <si>
+    <t>Example Dockerfile for a Javascript application</t>
+  </si>
+  <si>
+    <t>docker image build --file Dockerfile.dev --tag hello-dock:dev .</t>
+  </si>
+  <si>
+    <t>Build above image</t>
+  </si>
+  <si>
+    <t>docker container run \
+    --rm \
+    --detach \
+    --publish 3000:3000 \
+    --name hello-dock-dev \
+    hello-dock:dev</t>
+  </si>
+  <si>
+    <t>Run container created for javascript application (hello-dock application)</t>
+  </si>
+  <si>
+    <t>--volume &lt;container file system directory absolute path&gt;:&lt;read write access&gt;</t>
+  </si>
+  <si>
+    <t>Syntax for Anonymous Volume - very similar to Bind Mount. Allows a hot reload to happen</t>
+  </si>
+  <si>
+    <t>FROM node:lts-alpine as builder
+WORKDIR /app
+COPY ./package.json ./
+RUN npm install
+COPY . .
+RUN npm run build
+FROM nginx:stable-alpine
+EXPOSE 80
+COPY --from=builder /app/dist /usr/share/nginx/html</t>
+  </si>
+  <si>
+    <t>Dockerfile for doing a multistage build</t>
+  </si>
+  <si>
+    <t>docker image build --tag hello-dock:prod .</t>
+  </si>
+  <si>
+    <t>Build the above image</t>
+  </si>
+  <si>
+    <t>.dockerignore</t>
+  </si>
+  <si>
+    <t>A file containing a list of files/directories to ignore when doing a image build</t>
   </si>
 </sst>
 </file>
@@ -548,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -562,6 +625,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,15 +1155,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -1105,7 +1177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
@@ -1113,7 +1185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -1121,7 +1193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
@@ -1129,7 +1201,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
@@ -1137,7 +1209,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -1145,7 +1217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
@@ -1153,7 +1225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1161,7 +1233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1169,7 +1241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1177,7 +1249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1185,7 +1257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
@@ -1193,7 +1265,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>72</v>
       </c>
@@ -1201,7 +1273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>76</v>
       </c>
@@ -1209,7 +1281,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>78</v>
       </c>
@@ -1542,8 +1614,146 @@
         <v>130</v>
       </c>
     </row>
+    <row r="93" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="A83:A88"/>
@@ -1561,6 +1771,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9575841598740409B09223EF24CED85" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbe97c5ab245263ab655c5fd4ab1deaf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b0722e88-cd84-4871-92af-2e456a821a27" xmlns:ns4="44926ea0-499d-455d-a6f7-8910f7c58488" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e0264b979939903ce70a1471b72ed59" ns3:_="" ns4:_="">
     <xsd:import namespace="b0722e88-cd84-4871-92af-2e456a821a27"/>
@@ -1783,22 +2008,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D071480C-184B-4530-8225-B30D9A6BAED7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1815,29 +2050,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
-    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdonovan\OneDrive - Johnson Controls\MyWorkingFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="8_{0859B0DC-9245-4470-953D-A01ECC448748}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C1C832AA-FC0C-431B-B27B-F61AB37A76F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C362DF1-ABFD-4BEB-834E-9B2A1441230C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>Command</t>
   </si>
@@ -561,6 +561,30 @@
   </si>
   <si>
     <t>A file containing a list of files/directories to ignore when doing a image build</t>
+  </si>
+  <si>
+    <t>docker network ls</t>
+  </si>
+  <si>
+    <t>List networks in your system</t>
+  </si>
+  <si>
+    <t>5 types of Driver/Network Type</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>overlay</t>
+  </si>
+  <si>
+    <t>macvlan</t>
   </si>
 </sst>
 </file>
@@ -620,14 +644,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,7 +1027,7 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
@@ -1017,7 +1041,7 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1184,6 +1208,9 @@
       <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -1192,6 +1219,9 @@
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1200,6 +1230,9 @@
       <c r="B21" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -1208,6 +1241,9 @@
       <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1216,6 +1252,9 @@
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1224,6 +1263,9 @@
       <c r="B24" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1298,28 +1340,28 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -1373,7 +1415,7 @@
       <c r="A46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1381,7 +1423,7 @@
       <c r="A47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -1419,108 +1461,108 @@
       <c r="A52"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="4"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="4"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="4"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="4"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="4"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="4"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="4"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="4"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="4"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="4"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="4"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="4"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -1531,20 +1573,20 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -1555,32 +1597,32 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -1615,44 +1657,44 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
@@ -1663,35 +1705,35 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -1699,44 +1741,44 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
@@ -1746,14 +1788,16 @@
         <v>142</v>
       </c>
     </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A110:A118"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="A83:A88"/>
@@ -1764,6 +1808,12 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A53:A77"/>
     <mergeCell ref="B53:B77"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1771,21 +1821,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9575841598740409B09223EF24CED85" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbe97c5ab245263ab655c5fd4ab1deaf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b0722e88-cd84-4871-92af-2e456a821a27" xmlns:ns4="44926ea0-499d-455d-a6f7-8910f7c58488" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e0264b979939903ce70a1471b72ed59" ns3:_="" ns4:_="">
     <xsd:import namespace="b0722e88-cd84-4871-92af-2e456a821a27"/>
@@ -2008,32 +2043,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D071480C-184B-4530-8225-B30D9A6BAED7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2050,4 +2075,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdonovan\OneDrive - Johnson Controls\MyWorkingFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C362DF1-ABFD-4BEB-834E-9B2A1441230C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="114_{7CEB855C-BEC4-4455-A181-91E2DBA33CE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E12DE824-4851-4176-982D-CD2436090C41}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
   <si>
     <t>Command</t>
   </si>
@@ -585,6 +585,18 @@
   </si>
   <si>
     <t>macvlan</t>
+  </si>
+  <si>
+    <t>docker network create &lt;network name&gt;</t>
+  </si>
+  <si>
+    <t>Create user-defined network</t>
+  </si>
+  <si>
+    <t>docker network create skynet                                                 docker network ls</t>
+  </si>
+  <si>
+    <t>Create a network called "skynet" and see it in the list of networks</t>
   </si>
 </sst>
 </file>
@@ -967,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,8 +1808,36 @@
         <v>146</v>
       </c>
     </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="A83:A88"/>
@@ -1808,12 +1848,6 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A53:A77"/>
     <mergeCell ref="B53:B77"/>
-    <mergeCell ref="A110:A118"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1821,6 +1855,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9575841598740409B09223EF24CED85" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbe97c5ab245263ab655c5fd4ab1deaf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b0722e88-cd84-4871-92af-2e456a821a27" xmlns:ns4="44926ea0-499d-455d-a6f7-8910f7c58488" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e0264b979939903ce70a1471b72ed59" ns3:_="" ns4:_="">
     <xsd:import namespace="b0722e88-cd84-4871-92af-2e456a821a27"/>
@@ -2043,22 +2092,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D071480C-184B-4530-8225-B30D9A6BAED7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2075,29 +2134,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="114_{7CEB855C-BEC4-4455-A181-91E2DBA33CE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E12DE824-4851-4176-982D-CD2436090C41}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="114_{7CEB855C-BEC4-4455-A181-91E2DBA33CE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{23FD0AD2-705C-4D90-9883-ECE7D9A59415}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
   <si>
     <t>Command</t>
   </si>
@@ -597,6 +597,51 @@
   </si>
   <si>
     <t>Create a network called "skynet" and see it in the list of networks</t>
+  </si>
+  <si>
+    <t>docker network connect &lt;network identifier&gt; &lt;container identifier&gt;</t>
+  </si>
+  <si>
+    <t>First way of attaching container to a network</t>
+  </si>
+  <si>
+    <t>docker network connect skynet hello-dock</t>
+  </si>
+  <si>
+    <t>Example command - "skynet" = network, "hello-dock" = container</t>
+  </si>
+  <si>
+    <t>--network &lt;network identifier&gt;</t>
+  </si>
+  <si>
+    <t>Second way of attaching container to network - use with docker container run or create</t>
+  </si>
+  <si>
+    <t>docker container run --network skynet --rm --name alpine-box -it alpine sh</t>
+  </si>
+  <si>
+    <t>Example of the above</t>
+  </si>
+  <si>
+    <t>docker network disconnect &lt;network identifier&gt; &lt;container identifier</t>
+  </si>
+  <si>
+    <t>Detach container from network</t>
+  </si>
+  <si>
+    <t>docker network disconnect skynet hello-dock</t>
+  </si>
+  <si>
+    <t>docker network rm skynet</t>
+  </si>
+  <si>
+    <t>Remove a network ("skynet" in this example)</t>
+  </si>
+  <si>
+    <t>docker network prune</t>
+  </si>
+  <si>
+    <t>Another option for removing networks</t>
   </si>
 </sst>
 </file>
@@ -979,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1828,16 +1873,72 @@
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
     </row>
+    <row r="124" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A110:A118"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="A83:A88"/>
@@ -1848,6 +1949,14 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A53:A77"/>
     <mergeCell ref="B53:B77"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1855,18 +1964,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2093,26 +2202,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="114_{7CEB855C-BEC4-4455-A181-91E2DBA33CE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{23FD0AD2-705C-4D90-9883-ECE7D9A59415}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="114_{7CEB855C-BEC4-4455-A181-91E2DBA33CE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C045B836-E9F7-47D3-9344-66609F8D92A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
   <si>
     <t>Command</t>
   </si>
@@ -642,6 +642,80 @@
   </si>
   <si>
     <t>Another option for removing networks</t>
+  </si>
+  <si>
+    <t>docker container run \
+    --detach \
+    --name=notes-db \
+    --env POSTGRES_DB=notesdb \
+    --env POSTGRES_PASSWORD=secret \
+    --network=notes-api-network \
+    postgres:12</t>
+  </si>
+  <si>
+    <t>Run a container called "notes-db" with 2 environment variables, attached to a specific network. Also, use Version 12 of Postgres</t>
+  </si>
+  <si>
+    <t>docker volume create &lt;volume name&gt;</t>
+  </si>
+  <si>
+    <t>Create a named volume - can be used to, for example, store database data in case the container hosting the DB is deleted</t>
+  </si>
+  <si>
+    <t>docker volume create notes-db-data</t>
+  </si>
+  <si>
+    <t>docker container run \
+    --detach \
+    --volume notes-db-data:/var/lib/postgresql/data \
+    --name=notes-db \
+    --env POSTGRES_DB=notesdb \
+    --env POSTGRES_PASSWORD=secret \
+    --network=notes-api-network \
+    postgres:12</t>
+  </si>
+  <si>
+    <t>Mount a volume inside the postgres container</t>
+  </si>
+  <si>
+    <t>docker container logs &lt;container identifier&gt;</t>
+  </si>
+  <si>
+    <t>See the logs in a container</t>
+  </si>
+  <si>
+    <t>docker container logs notes-db</t>
+  </si>
+  <si>
+    <t># stage one
+FROM node:lts-alpine as builder
+# install dependencies for node-gyp
+RUN apk add --no-cache python make g++
+WORKDIR /app
+COPY ./package.json .
+RUN npm install --only=prod
+# stage two
+FROM node:lts-alpine
+EXPOSE 3000
+ENV NODE_ENV=production
+USER node
+RUN mkdir -p /home/node/app
+WORKDIR /home/node/app
+COPY . .
+COPY --from=builder /app/node_modules  /home/node/app/node_modules
+CMD [ "node", "bin/www" ]</t>
+  </si>
+  <si>
+    <t>Dockerfile for the application in "Containerizing a Multi-Container JavaScript Application" section</t>
+  </si>
+  <si>
+    <t>docker image build --tag notes-api .</t>
+  </si>
+  <si>
+    <t>docker container inspect notes-db</t>
+  </si>
+  <si>
+    <t>Inspect above container to see if it is running &amp; attached to network</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151:B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1937,8 +2011,214 @@
         <v>171</v>
       </c>
     </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>174</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>179</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>181</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>184</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>185</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="B132:B138"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B148"/>
+    <mergeCell ref="A151:A168"/>
+    <mergeCell ref="B151:B168"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="A83:A88"/>
@@ -1949,14 +2229,6 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A53:A77"/>
     <mergeCell ref="B53:B77"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A110:A118"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1964,18 +2236,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2202,26 +2474,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
+    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="114_{7CEB855C-BEC4-4455-A181-91E2DBA33CE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C045B836-E9F7-47D3-9344-66609F8D92A9}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="114_{7CEB855C-BEC4-4455-A181-91E2DBA33CE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2255AE6C-4541-4A95-832E-5A6B641A3E3F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
+    <workbookView minimized="1" xWindow="3276" yWindow="3276" windowWidth="12288" windowHeight="7812" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="193">
   <si>
     <t>Command</t>
   </si>
@@ -716,6 +716,32 @@
   </si>
   <si>
     <t>Inspect above container to see if it is running &amp; attached to network</t>
+  </si>
+  <si>
+    <t>docker container run \
+    --detach \
+    --name=notes-api \
+    --env DB_HOST=notes-db \
+    --env DB_DATABASE=notesdb \
+    --env DB_PASSWORD=secret \
+    --publish=3000:3000 \
+    --network=notes-api-network \
+    notes-api</t>
+  </si>
+  <si>
+    <t>Run the above created container</t>
+  </si>
+  <si>
+    <t>docker container exec &lt;container identifier&gt; &lt;command&gt;</t>
+  </si>
+  <si>
+    <t>Use "exec" to run a command inside a running container</t>
+  </si>
+  <si>
+    <t>docker container exec notes-api npm run db:migrate</t>
+  </si>
+  <si>
+    <t>Run the database migration necessary to set up the DB tables [use -it to run command interactively]</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151:B168"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2203,22 +2229,66 @@
         <v>186</v>
       </c>
     </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+    </row>
+    <row r="180" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>189</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A132:A138"/>
-    <mergeCell ref="B132:B138"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="B141:B148"/>
-    <mergeCell ref="A151:A168"/>
-    <mergeCell ref="B151:B168"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A110:A118"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
+  <mergeCells count="26">
+    <mergeCell ref="A171:A179"/>
+    <mergeCell ref="B171:B179"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="A83:A88"/>
@@ -2229,6 +2299,20 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A53:A77"/>
     <mergeCell ref="B53:B77"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="B132:B138"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B148"/>
+    <mergeCell ref="A151:A168"/>
+    <mergeCell ref="B151:B168"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2236,18 +2320,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2474,26 +2558,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
-    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Docker_notes.xlsx
+++ b/Docker_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.jci.com/personal/jdonovc_jci_com/Documents/MyWorkingFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="114_{7CEB855C-BEC4-4455-A181-91E2DBA33CE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2255AE6C-4541-4A95-832E-5A6B641A3E3F}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="114_{7CEB855C-BEC4-4455-A181-91E2DBA33CE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DB2FE49E-3E33-4BA7-9BCE-4DF2E79E201E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3276" yWindow="3276" windowWidth="12288" windowHeight="7812" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{A43ABBFC-D447-450C-AA37-F9459B5495A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="209">
   <si>
     <t>Command</t>
   </si>
@@ -742,6 +742,81 @@
   </si>
   <si>
     <t>Run the database migration necessary to set up the DB tables [use -it to run command interactively]</t>
+  </si>
+  <si>
+    <t>Shell scripts &amp; makefile to manage creation, destruction etc of containers: https://docker-handbook.farhan.dev/containerizing-a-multi-container-javascript-application#writing-management-scripts</t>
+  </si>
+  <si>
+    <t>version: "3.8"
+services: 
+    db:
+        image: postgres:12
+        container_name: notes-db-dev
+        volumes: 
+            - db-data:/var/lib/postgresql/data
+        environment:
+            POSTGRES_DB: notesdb
+            POSTGRES_PASSWORD: secret
+    api:
+        build:
+            context: ./api
+            dockerfile: Dockerfile.dev
+        image: notes-api:dev
+        container_name: notes-api-dev
+        environment: 
+            DB_HOST: db ## same as the database service name
+            DB_DATABASE: notesdb
+            DB_PASSWORD: secret
+        volumes: 
+            - /home/node/app/node_modules
+            - ./api:/home/node/app
+        ports: 
+            - 3000:3000
+volumes:
+    db-data:
+        name: notes-db-dev-data</t>
+  </si>
+  <si>
+    <t>YAML file for Docker Compose to put together 2 containers (docker-compose.yaml)</t>
+  </si>
+  <si>
+    <t>docker-compose --file docker-compose.yaml up --detach</t>
+  </si>
+  <si>
+    <t>Start all services using a Docker Compose (using "up" command - can also use "start" instead of "up")</t>
+  </si>
+  <si>
+    <t>docker-compose ps</t>
+  </si>
+  <si>
+    <t>Command to list containers created using Docker Compose</t>
+  </si>
+  <si>
+    <t>docker-compose exec &lt;service name&gt; &lt;command&gt;</t>
+  </si>
+  <si>
+    <t>"exec" command specifically for Docker Compose</t>
+  </si>
+  <si>
+    <t>docker-compose exec api npm run db:migrate</t>
+  </si>
+  <si>
+    <t>Run the DB migration scripts</t>
+  </si>
+  <si>
+    <t>docker-compose logs api</t>
+  </si>
+  <si>
+    <t>Access logs from "api" container</t>
+  </si>
+  <si>
+    <t>docker-compose down --volumes</t>
+  </si>
+  <si>
+    <t>docker-compose stop</t>
+  </si>
+  <si>
+    <t>2 options for stopping/removing containers. The "volumes" option means that the named volumes will be removed</t>
   </si>
 </sst>
 </file>
@@ -1124,16 +1199,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2558726-1A00-4437-81B6-3570C7D4097E}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="72.44140625" customWidth="1"/>
   </cols>
@@ -1431,6 +1506,9 @@
       <c r="B25" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="F25" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2285,20 +2363,199 @@
         <v>192</v>
       </c>
     </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+    </row>
+    <row r="210" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>196</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>198</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>200</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>202</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>204</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>206</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B216" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A53:A77"/>
+    <mergeCell ref="B53:B77"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="B132:B138"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B148"/>
+    <mergeCell ref="A151:A168"/>
+    <mergeCell ref="B151:B168"/>
+    <mergeCell ref="A182:A209"/>
+    <mergeCell ref="B182:B209"/>
     <mergeCell ref="A171:A179"/>
     <mergeCell ref="B171:B179"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="B79:B81"/>
     <mergeCell ref="A83:A88"/>
     <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A53:A77"/>
-    <mergeCell ref="B53:B77"/>
     <mergeCell ref="A122:A123"/>
     <mergeCell ref="B122:B123"/>
     <mergeCell ref="A110:A118"/>
@@ -2307,12 +2564,6 @@
     <mergeCell ref="B93:B101"/>
     <mergeCell ref="A103:A108"/>
     <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A132:A138"/>
-    <mergeCell ref="B132:B138"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="B141:B148"/>
-    <mergeCell ref="A151:A168"/>
-    <mergeCell ref="B151:B168"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2329,12 +2580,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D9575841598740409B09223EF24CED85" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbe97c5ab245263ab655c5fd4ab1deaf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b0722e88-cd84-4871-92af-2e456a821a27" xmlns:ns4="44926ea0-499d-455d-a6f7-8910f7c58488" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e0264b979939903ce70a1471b72ed59" ns3:_="" ns4:_="">
     <xsd:import namespace="b0722e88-cd84-4871-92af-2e456a821a27"/>
@@ -2557,6 +2802,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED3F8EC-DD5F-40EB-A2C6-54138B18DB9C}">
   <ds:schemaRefs>
@@ -2566,23 +2817,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D071480C-184B-4530-8225-B30D9A6BAED7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2599,4 +2833,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DAA1723-B44C-4EF7-BB2A-E8A4C66008C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="44926ea0-499d-455d-a6f7-8910f7c58488"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b0722e88-cd84-4871-92af-2e456a821a27"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>